--- a/biology/Zoologie/Indirana_brachytarsus/Indirana_brachytarsus.xlsx
+++ b/biology/Zoologie/Indirana_brachytarsus/Indirana_brachytarsus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indirana brachytarsus est une espèce d'amphibiens de la famille des Ranixalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indirana brachytarsus est une espèce d'amphibiens de la famille des Ranixalidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud des Ghâts occidentaux en Inde. Elle se rencontre entre 800 et 1 200 m d'altitude dans les États du Karnataka, du Kerala et du Tamil Nadu[1],[2].  
-C'est une espèce terrestre vivant dans les forêts tropicales humides et les marécages. On peut la trouver en bordure de forêt mais jamais dans les zones cultivées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud des Ghâts occidentaux en Inde. Elle se rencontre entre 800 et 1 200 m d'altitude dans les États du Karnataka, du Kerala et du Tamil Nadu,.  
+C'est une espèce terrestre vivant dans les forêts tropicales humides et les marécages. On peut la trouver en bordure de forêt mais jamais dans les zones cultivées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Günther dans sa description fait état de deux spécimens mesurant 38 et 55 mm. Leur dos était brun tacheté de sombre et présentant une ligne longitudinal blanchâtre sur la moitié inférieure du dos[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Günther dans sa description fait état de deux spécimens mesurant 38 et 55 mm. Leur dos était brun tacheté de sombre et présentant une ligne longitudinal blanchâtre sur la moitié inférieure du dos.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1876 "1875" : Third report on collection of Indian reptiles obtained by British Museum. Proceedings of the Zoological Society of London, vol. 1875, p. 567-577 (texte intégral).</t>
         </is>
